--- a/pred_ohlcv/54_21/2020-01-14 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 ETC ohlcv.xlsx
@@ -1224,7 +1224,7 @@
         <v>286.1773021432231</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>303.9508021432231</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>403.9508021432231</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>257.0120021432231</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>307.4619021432231</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>305.9621021432231</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>365.932002143223</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>430.213502143223</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>430.213502143223</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>430.213502143223</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>671.4882211715631</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>671.4882211715631</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>671.4882211715631</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>671.4882211715631</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>941.4882211715631</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>861.4882211715631</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>887.9954211715631</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1418.494321171563</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1666.770721171563</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1666.770721171563</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1618.770721171563</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1618.770721171563</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1773.170721171563</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1871.370721171563</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1823.500921171563</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1828.654621171563</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1828.654621171563</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1851.639921171563</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1851.639921171563</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1841.035821171563</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1874.753021171563</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1874.753021171563</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>2022.709921171563</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>2026.409921171563</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>2020.109921171563</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>2126.409921171563</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>2106.409921171563</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>2308.529921171563</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>2395.896221171563</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1259.151621171563</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1245.173921171564</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1245.173921171564</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>960.0633211715634</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>833.8633211715634</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-14126.82139510609</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-14216.76319510609</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-14286.57969510609</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-14286.57969510609</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-14286.57969510609</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-14386.62029510609</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-14387.61949510609</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-14387.61949510609</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-14394.09549510609</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-15521.15909510609</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-15521.15909510609</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-15521.05909510609</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-15498.8029426631</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-15402.6635426631</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-15402.6635426631</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-15402.6635426631</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-15402.6635426631</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-15412.1629426631</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-15304.1178426631</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 ETC ohlcv.xlsx
@@ -1224,7 +1224,7 @@
         <v>286.1773021432231</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>303.9508021432231</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>403.9508021432231</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>257.0120021432231</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>307.4619021432231</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>305.9621021432231</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>365.932002143223</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>430.213502143223</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>430.213502143223</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>430.213502143223</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>671.4882211715631</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>671.4882211715631</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>671.4882211715631</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>671.4882211715631</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>941.4882211715631</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>861.4882211715631</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>887.9954211715631</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1418.494321171563</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1666.770721171563</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1666.770721171563</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1618.770721171563</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1618.770721171563</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1773.170721171563</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1871.370721171563</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1823.500921171563</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1828.654621171563</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1828.654621171563</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1841.035821171563</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1894.819921171563</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1874.753021171563</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1874.753021171563</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>2022.709921171563</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>2026.409921171563</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>2020.109921171563</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>2126.409921171563</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>2106.409921171563</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>2308.529921171563</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>2395.896221171563</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1259.151621171563</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1245.173921171564</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1245.173921171564</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>960.0633211715634</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>833.8633211715634</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-14126.82139510609</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-14216.76319510609</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-14286.57969510609</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-14286.57969510609</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-14286.57969510609</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-14386.62029510609</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-14387.61949510609</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-14387.61949510609</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-14394.09549510609</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-15521.05909510609</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-15498.8029426631</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-15402.6635426631</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-15402.6635426631</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-15402.6635426631</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-15402.6635426631</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-15412.1629426631</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
